--- a/InputData/endo-learn/PDiCECpDoC/Perc Decline in CCS Eqpt Cost per Doubling of Capacity.xlsx
+++ b/InputData/endo-learn/PDiCECpDoC/Perc Decline in CCS Eqpt Cost per Doubling of Capacity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\PDiCECpDoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/endo-learn/pdicecpdoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8352D80-E6D5-5247-AE5E-A7549BCAF42A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="22035" windowHeight="11835"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="22040" windowHeight="11840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,12 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,6 +206,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -239,6 +258,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,19 +450,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="3">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -434,52 +473,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -491,7 +530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -501,17 +540,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>

--- a/InputData/endo-learn/PDiCECpDoC/Perc Decline in CCS Eqpt Cost per Doubling of Capacity.xlsx
+++ b/InputData/endo-learn/PDiCECpDoC/Perc Decline in CCS Eqpt Cost per Doubling of Capacity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/endo-learn/pdicecpdoc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/endo-learn/pdicecpdoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8352D80-E6D5-5247-AE5E-A7549BCAF42A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFE1F4B-4717-D54F-B053-D3EAD63065CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="22040" windowHeight="11840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
